--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <r>
       <t>login</t>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Point</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Money</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,6 +144,62 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场次id,每局游戏一个id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLCid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLCid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,13 +630,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -592,10 +647,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,10 +661,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -614,10 +675,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -647,13 +711,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -661,13 +728,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,13 +745,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -689,26 +762,32 @@
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -733,13 +812,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,35 +829,44 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <r>
       <t>login</t>
@@ -61,10 +61,6 @@
     <t>说明</t>
   </si>
   <si>
-    <t>gamerecord游戏记录表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DLC购买记录表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -199,6 +191,18 @@
   </si>
   <si>
     <t>购买日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中列名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLC购买记录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamerecord游戏记录表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,16 +634,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,13 +651,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,37 +665,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -708,86 +712,86 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -809,64 +813,64 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <r>
       <t>login</t>
@@ -135,9 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,6 +200,30 @@
   </si>
   <si>
     <t>gamerecord游戏记录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Not null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（外键）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,7 +678,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,7 +692,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,17 +706,17 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -724,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -738,10 +759,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -766,18 +787,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -786,12 +804,12 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -825,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -842,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -856,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -864,13 +882,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <r>
       <t>login</t>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NickName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DLCid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,19 +167,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DLCid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +208,94 @@
   </si>
   <si>
     <t>DATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dtype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Not null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（主键）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLC类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLC订单id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dtype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户dlc购买视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降序排列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分榜查询视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人分数查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升序排列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,7 +406,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -616,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,16 +726,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,37 +757,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -736,33 +807,33 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,46 +841,46 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -834,58 +905,193 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <r>
       <t>login</t>
@@ -36,12 +36,6 @@
     </r>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>UID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,10 +68,6 @@
   </si>
   <si>
     <t>GID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NickName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -259,10 +249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户dlc购买视图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -283,10 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总分榜查询视图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>个人分数查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -296,6 +278,34 @@
   </si>
   <si>
     <t>UID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人分数查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard总分榜查询视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlcbuy用户dlc购买视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -689,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,392 +716,392 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <r>
       <t>login</t>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dtype</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,18 +273,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>升序</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>个人分数查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dashboard总分榜查询视图</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -306,6 +294,22 @@
   </si>
   <si>
     <t>NickName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,7 +754,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -764,7 +768,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -778,7 +782,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -993,7 +997,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1001,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -1010,25 +1014,25 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1036,24 +1040,24 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>6</v>
@@ -1061,26 +1065,26 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1088,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>6</v>
@@ -1096,12 +1100,15 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD77251-F2F5-45CF-BE89-E680200AF626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,17 +701,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
